--- a/medicine/Enfance/Franck_Pavloff/Franck_Pavloff.xlsx
+++ b/medicine/Enfance/Franck_Pavloff/Franck_Pavloff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franck Pavloff, né le 24 avril 1940 à Nîmes[2], est un écrivain et poète français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franck Pavloff, né le 24 avril 1940 à Nîmes, est un écrivain et poète français.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De son père bulgare, Franck Pavloff dira qu'il lui permit de développer son esprit critique et son besoin de liberté, en lui léguant « le goût impérieux de bousculer les barbelés et les pensées confisquées[3] ».
-Il a passé plus de vingt ans en Afrique, en Asie, en Amérique Latine et en France dans le secteur du développement social communautaire et de la défense du droit des enfants. Il est psychologue expert auprès des cours d’appel[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De son père bulgare, Franck Pavloff dira qu'il lui permit de développer son esprit critique et son besoin de liberté, en lui léguant « le goût impérieux de bousculer les barbelés et les pensées confisquées ».
+Il a passé plus de vingt ans en Afrique, en Asie, en Amérique Latine et en France dans le secteur du développement social communautaire et de la défense du droit des enfants. Il est psychologue expert auprès des cours d’appel.
 Un premier roman paraît en 1993 dans la collection Série noire des éditions Gallimard. Vingt-cinq autres livres vont suivre, dans le domaine de la fiction romanesque, du carnet de voyage, de la poésie — ainsi que des romans jeunesse aux éditions Syros, Albin-Michel Jeunesse, Rue du Monde.
-En 1995, l'ouvrage qu'il a écrit, illustré par Marcelino Truong, dans la collection « J'accuse…! » :  Enfants prostitués en Asie, est lauréat du Non Fiction Young Adults, à la Foire du livre de jeunesse de Bologne[5] (Italie).
-Sa nouvelle Matin brun aux éditions Cheyne, publiée en 1998 a rencontré un succès international[6], avec environ deux millions d'exemplaires vendus en France et 25 traductions[7]. En 2007, le compositeur Bruno Giner en a tiré un opéra de poche intitulé Charlie, créé à Ljubljana par l'Ensemble Aleph et enregistré pour Radio France par ce même ensemble (collection Signature).
+En 1995, l'ouvrage qu'il a écrit, illustré par Marcelino Truong, dans la collection « J'accuse…! » :  Enfants prostitués en Asie, est lauréat du Non Fiction Young Adults, à la Foire du livre de jeunesse de Bologne (Italie).
+Sa nouvelle Matin brun aux éditions Cheyne, publiée en 1998 a rencontré un succès international, avec environ deux millions d'exemplaires vendus en France et 25 traductions. En 2007, le compositeur Bruno Giner en a tiré un opéra de poche intitulé Charlie, créé à Ljubljana par l'Ensemble Aleph et enregistré pour Radio France par ce même ensemble (collection Signature).
 Ses derniers romans pour adultes sont parus chez Albin Michel : Le Pont de Ran-Mositar (2005), La Chapelle des Apparences (2007), Le Grand Exil (2009), L'Homme à la carrure d'ours (2012).
-Franck Pavloff, vit actuellement depuis 2010 dans les Cévennes, entre deux voyages[8].
+Franck Pavloff, vit actuellement depuis 2010 dans les Cévennes, entre deux voyages.
 </t>
         </is>
       </c>
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans, nouvelles
-Le Vent des fous, Éditeur Gallimard, Série noire no 2334, 1993
+          <t>Romans, nouvelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Vent des fous, Éditeur Gallimard, Série noire no 2334, 1993
 Foulée noire, Éditions Baleine, collection Instantanés de Polar, 1995
 Un trou dans la zone, Éditions Baleine, Le Poulpe, 1995
 Les Yeux de Bee, Éditions Baleine, 1998
@@ -576,10 +595,44 @@
 La Nuit des enfants qui dansent, Albin Michel, 2017
 Par les soirs bleus d'été, Albin Michel, 2019
 Les Nouvelles Brunes, Cheyne, 2020
-L'Espérance est ma patrie, Albin Michel, 2022
-Jeunesse
-Enfants prostitués en Asie, illustré par Marcelino Truong, collection « J'accuse…! » , Syros, 1994
-Lauréat du Non Fiction Young Adults, à la Foire du livre de jeunesse de Bologne 1995[5]
+L'Espérance est ma patrie, Albin Michel, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Franck_Pavloff</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franck_Pavloff</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Enfants prostitués en Asie, illustré par Marcelino Truong, collection « J'accuse…! » , Syros, 1994
+Lauréat du Non Fiction Young Adults, à la Foire du livre de jeunesse de Bologne 1995
 Pinguino, Éditeur Syros, Souris noire, 1994
 Lao, Wee et Arusha, Syros (J’accuse), 1994
 Le squat résiste, Syros  (Souris noire), 1996
@@ -589,9 +642,43 @@
 Jusqu’à l'aube, Bayard (Je bouquine), 2004
 Eloa quand est-ce qu’on s’en va ?, illustrations de Clotilde Perrin, Rue du Monde, 2005
 La Chute de l’aigle d’or, Fleurus, 2006
-Les Trois Cadeaux, Albin Michel J. (album), 2013
-Poésies
-Jardins de Barbarie, Ricochet, 2000
+Les Trois Cadeaux, Albin Michel J. (album), 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Franck_Pavloff</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franck_Pavloff</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jardins de Barbarie, Ricochet, 2000
 Indienne d’exil, Triptyque (Québec), 2001</t>
         </is>
       </c>
